--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\OneDrive - University of Texas at Arlington\Cse 1325\Homework 6\Homework_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Texas at Arlington\Cse 1325\Homework 6\Homework_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="627" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="627" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint NN Backlog (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint NN Backlog (3)" sheetId="7" r:id="rId2"/>
+    <sheet name="Sprint NN Backlog (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
   <si>
     <t>Product Name:</t>
   </si>
@@ -494,6 +495,9 @@
   </si>
   <si>
     <t>finished</t>
+  </si>
+  <si>
+    <t>installing fltk - tried all methods, none worked</t>
   </si>
 </sst>
 </file>
@@ -1086,6 +1090,257 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
+              <c:f>'Sprint NN Backlog (3)'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F432-4093-8A56-D9D968F7099E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="71626184"/>
+        <c:axId val="77322397"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="71626184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="77322397"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77322397"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="71626184"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
               <c:f>'Sprint NN Backlog (2)'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1260,7 +1515,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1565,6 +1820,49 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2AED05-50CF-4583-AA42-064459F7E72C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DAB4E2-8B88-442E-9929-1354ED10B0CF}"/>
             </a:ext>
           </a:extLst>
@@ -1588,7 +1886,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1928,25 +2226,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.69140625"/>
-    <col min="2" max="2" width="4.69140625"/>
-    <col min="3" max="3" width="10.84375"/>
+    <col min="1" max="1" width="13.7109375"/>
+    <col min="2" max="2" width="4.7109375"/>
+    <col min="3" max="3" width="10.85546875"/>
     <col min="4" max="4" width="11"/>
-    <col min="5" max="5" width="14.15234375" style="1"/>
-    <col min="6" max="6" width="8.15234375"/>
-    <col min="7" max="7" width="40.53515625"/>
-    <col min="8" max="8" width="41.53515625"/>
-    <col min="9" max="9" width="80.3046875"/>
-    <col min="10" max="1025" width="11.53515625"/>
+    <col min="5" max="5" width="14.140625" style="1"/>
+    <col min="6" max="6" width="8.140625"/>
+    <col min="7" max="7" width="40.5703125"/>
+    <col min="8" max="8" width="41.5703125"/>
+    <col min="9" max="9" width="80.28515625"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +2256,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +2268,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1980,7 +2278,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1994,7 +2292,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2008,7 +2306,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2320,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2032,7 +2330,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2044,7 +2342,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2356,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2072,7 +2370,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2084,7 +2382,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2094,7 +2392,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2106,7 +2404,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2416,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2428,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2140,7 +2438,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2152,7 +2450,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2462,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2176,7 +2474,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2186,7 +2484,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2503,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2522,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2244,7 +2542,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2264,7 +2562,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2581,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2600,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2322,7 +2620,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2640,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2361,7 +2659,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2371,7 +2669,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2383,7 +2681,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2395,7 +2693,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
@@ -2424,7 +2722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1</v>
       </c>
@@ -2444,7 +2742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13">
         <v>2</v>
       </c>
@@ -2464,7 +2762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>3</v>
       </c>
@@ -2484,7 +2782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>4</v>
       </c>
@@ -2504,7 +2802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>5</v>
       </c>
@@ -2524,7 +2822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>6</v>
       </c>
@@ -2544,7 +2842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>7</v>
       </c>
@@ -2564,7 +2862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>8</v>
       </c>
@@ -2584,7 +2882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>9</v>
       </c>
@@ -2604,7 +2902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>10</v>
       </c>
@@ -2624,7 +2922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>11</v>
       </c>
@@ -2644,7 +2942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>12</v>
       </c>
@@ -2662,7 +2960,7 @@
       </c>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>13</v>
       </c>
@@ -2682,7 +2980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>14</v>
       </c>
@@ -2702,7 +3000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>15</v>
       </c>
@@ -2722,7 +3020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="16" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>16</v>
       </c>
@@ -2742,7 +3040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="19" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
         <v>23</v>
       </c>
@@ -2762,7 +3060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="19" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B51" s="16">
         <v>24</v>
       </c>
@@ -2782,7 +3080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="25" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B52" s="25">
         <v>17</v>
       </c>
@@ -2802,7 +3100,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="25" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B53" s="25">
         <v>18</v>
       </c>
@@ -2822,10 +3120,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E54"/>
     </row>
-    <row r="56" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>21</v>
       </c>
@@ -2845,7 +3143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="25" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>22</v>
       </c>
@@ -2865,7 +3163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="25">
         <v>25</v>
       </c>
@@ -2885,7 +3183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="25" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B59" s="25">
         <v>26</v>
       </c>
@@ -2905,7 +3203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="28">
         <v>27</v>
       </c>
@@ -2925,7 +3223,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="28">
         <v>28</v>
       </c>
@@ -2945,7 +3243,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="28">
         <v>19</v>
       </c>
@@ -2965,7 +3263,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="28">
         <v>20</v>
       </c>
@@ -2985,7 +3283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="28">
         <v>29</v>
       </c>
@@ -3005,7 +3303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="28">
         <v>30</v>
       </c>
@@ -3025,7 +3323,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>31</v>
       </c>
@@ -3045,7 +3343,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>32</v>
       </c>
@@ -3065,7 +3363,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>33</v>
       </c>
@@ -3085,7 +3383,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>34</v>
       </c>
@@ -3105,7 +3403,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>35</v>
       </c>
@@ -3125,7 +3423,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>36</v>
       </c>
@@ -3158,19 +3456,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.84375" customWidth="1"/>
-    <col min="6" max="6" width="27.61328125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
@@ -3186,12 +3484,12 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="31">
-        <v>42676</v>
+        <v>42685.5</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -3200,12 +3498,12 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>133</v>
       </c>
       <c r="B3" s="31">
-        <v>42684.5</v>
+        <v>42691.416666666664</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -3214,7 +3512,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>134</v>
       </c>
@@ -3226,7 +3524,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -3236,7 +3534,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>135</v>
       </c>
@@ -3250,7 +3548,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>136</v>
       </c>
@@ -3265,7 +3563,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>137</v>
       </c>
@@ -3280,7 +3578,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>138</v>
       </c>
@@ -3295,7 +3593,7 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>139</v>
       </c>
@@ -3310,7 +3608,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>140</v>
       </c>
@@ -3325,7 +3623,7 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>141</v>
       </c>
@@ -3340,7 +3638,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>142</v>
       </c>
@@ -3355,7 +3653,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -3365,7 +3663,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>143</v>
       </c>
@@ -3391,7 +3689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>152</v>
       </c>
@@ -3412,6 +3710,11 @@
       </c>
       <c r="H16" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3429,22 +3732,290 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32">
+        <v>3</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42676</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42684.5</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="32">
+        <v>12</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="32">
+        <f t="shared" ref="B7:B13" si="0">B6</f>
+        <v>12</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.3046875"/>
-    <col min="2" max="2" width="16.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.53515625"/>
-    <col min="5" max="5" width="12.3046875"/>
-    <col min="6" max="6" width="51.84375"/>
-    <col min="7" max="7" width="11.53515625"/>
-    <col min="8" max="8" width="51.84375"/>
-    <col min="9" max="1025" width="11.53515625"/>
+    <col min="1" max="1" width="10.28515625"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="12.28515625"/>
+    <col min="6" max="6" width="51.85546875"/>
+    <col min="7" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="51.85546875"/>
+    <col min="9" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3460,7 +4031,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
@@ -3474,7 +4045,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
@@ -3488,7 +4059,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
@@ -3500,7 +4071,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="31"/>
       <c r="C5" s="2"/>
@@ -3510,7 +4081,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>135</v>
       </c>
@@ -3524,7 +4095,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
@@ -3539,7 +4110,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -3554,7 +4125,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
@@ -3569,7 +4140,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
@@ -3584,7 +4155,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>140</v>
       </c>
@@ -3599,7 +4170,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -3614,7 +4185,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
@@ -3629,7 +4200,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3639,7 +4210,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>143</v>
       </c>
@@ -3665,7 +4236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
     </row>
   </sheetData>
